--- a/data/wattHours_to_time/resistive.xlsx
+++ b/data/wattHours_to_time/resistive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Time (min)</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>KW Error</t>
+  </si>
+  <si>
+    <t>WU</t>
+  </si>
+  <si>
+    <t>WU Error</t>
   </si>
 </sst>
 </file>
@@ -115,16 +121,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$5:$A$14</c:f>
@@ -203,16 +207,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$5:$A$14</c:f>
@@ -291,16 +293,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$5:$A$14</c:f>
@@ -373,7 +373,93 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -383,11 +469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62738432"/>
-        <c:axId val="97350016"/>
+        <c:axId val="133560960"/>
+        <c:axId val="134152576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62738432"/>
+        <c:axId val="133560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,12 +483,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97350016"/>
+        <c:crossAx val="134152576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97350016"/>
+        <c:axId val="134152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62738432"/>
+        <c:crossAx val="133560960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -757,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +854,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -776,7 +862,7 @@
         <v>434.34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -784,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -809,8 +895,14 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -837,8 +929,14 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -849,19 +947,26 @@
         <v>12.87</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D21" si="0">B6-B$1</f>
+        <f t="shared" ref="D6" si="0">B6-B$1</f>
         <v>8.9500000000000455</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E21" si="1">C6-B$2</f>
+        <f t="shared" ref="E6" si="1">C6-B$2</f>
         <v>9.8699999999999992</v>
       </c>
       <c r="F6">
         <f>ABS(E6-D6)/D6*100</f>
         <v>10.279329608937978</v>
       </c>
+      <c r="I6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J6">
+        <f>ABS(I6-D6)/D6*100</f>
+        <v>3.9106145251391453</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -883,8 +988,15 @@
         <f t="shared" ref="F7:F14" si="4">ABS(E7-D7)/D7*100</f>
         <v>8.5549132947976219</v>
       </c>
+      <c r="I7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J14" si="5">ABS(I7-D7)/D7*100</f>
+        <v>9.2485549132947185</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -895,11 +1007,11 @@
         <v>47.69</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D14" si="5">B8-B$1</f>
+        <f t="shared" ref="D8:D14" si="6">B8-B$1</f>
         <v>42.700000000000045</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E14" si="6">C8-B$2</f>
+        <f t="shared" ref="E8:E14" si="7">C8-B$2</f>
         <v>44.69</v>
       </c>
       <c r="F8">
@@ -910,11 +1022,18 @@
         <v>40</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H7:H14" si="7">ABS(G8-D8)/D8*100</f>
+        <f t="shared" ref="H8:H14" si="8">ABS(G8-D8)/D8*100</f>
         <v>6.3231850117097022</v>
       </c>
+      <c r="I8">
+        <v>47.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>11.241217798594731</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -925,11 +1044,11 @@
         <v>91.75</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84.150000000000034</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88.75</v>
       </c>
       <c r="F9">
@@ -940,11 +1059,18 @@
         <v>80</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9316696375520293</v>
       </c>
+      <c r="I9">
+        <v>94.7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>12.537136066547788</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -955,11 +1081,11 @@
         <v>185.65</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>167.66000000000003</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>182.65</v>
       </c>
       <c r="F10">
@@ -970,11 +1096,18 @@
         <v>160</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5687701300250652</v>
       </c>
+      <c r="I10">
+        <v>189.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>13.026362877251563</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -985,11 +1118,11 @@
         <v>277.10000000000002</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>251.77000000000004</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>274.10000000000002</v>
       </c>
       <c r="F11">
@@ -1000,11 +1133,18 @@
         <v>250</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70302259999207151</v>
       </c>
+      <c r="I11">
+        <v>285</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>13.198554236009038</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80</v>
       </c>
@@ -1015,11 +1155,11 @@
         <v>368.13</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>335.50000000000006</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>365.13</v>
       </c>
       <c r="F12">
@@ -1030,11 +1170,18 @@
         <v>330</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6393442622950987</v>
       </c>
+      <c r="I12">
+        <v>380</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>13.263785394932917</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1045,11 +1192,11 @@
         <v>459.46</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>419.36000000000007</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>456.46</v>
       </c>
       <c r="F13">
@@ -1060,11 +1207,18 @@
         <v>410</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2319725295688833</v>
       </c>
+      <c r="I13">
+        <v>475</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>13.267836703548245</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1075,11 +1229,11 @@
         <v>551.55999999999995</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>503.82</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>548.55999999999995</v>
       </c>
       <c r="F14">
@@ -1090,8 +1244,15 @@
         <v>490</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7430431503314661</v>
+      </c>
+      <c r="I14">
+        <v>570</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>13.135643682267478</v>
       </c>
     </row>
   </sheetData>
